--- a/InputData/indst/PPRiEYFUfERoIF/Pot Perc Reduction in Fuel Use from Early Retirement.xlsx
+++ b/InputData/indst/PPRiEYFUfERoIF/Pot Perc Reduction in Fuel Use from Early Retirement.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="163">
   <si>
     <t>Industrial Sector Macroeconomic Indicators</t>
   </si>
@@ -505,10 +505,7 @@
     <t>Industrial Macroeconomic : Total Industrial Value of Shipments : Reference case</t>
   </si>
   <si>
-    <t>(This case doesn't exist in AEO2015, which included a reduced number of cases relative to</t>
-  </si>
-  <si>
-    <t>AEO2014, so we use AEO2014 for this variable.)</t>
+    <t>(This case doesn't exist in AEO2015 or AEO2016, so we use AEO2014 for this variable.)</t>
   </si>
 </sst>
 </file>
@@ -964,7 +961,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1032,53 +1029,48 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>163</v>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
         <v>32</v>
       </c>
     </row>
